--- a/evaluate/results/eval_RAG_ragas_result.xlsx
+++ b/evaluate/results/eval_RAG_ragas_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Bachelor_research_project\evaluate\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8273D88-189A-4A4A-92E4-9FF4F00CF926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604B2B0C-8A7A-4B25-9F66-C186E6401916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/evaluate/results/eval_RAG_ragas_result.xlsx
+++ b/evaluate/results/eval_RAG_ragas_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Bachelor_research_project\evaluate\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604B2B0C-8A7A-4B25-9F66-C186E6401916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3FA833-C836-4FB9-99CD-47D5353C3949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,9 +260,6 @@
     <t>Chính sách chống dịch của chính phủ gồm những gì và tại sao nó quan trọng trong việc ngăn chặn đại dịch SARS-CoV-2?</t>
   </si>
   <si>
-    <t>Xin lỗi bạn, có thể dữ liệu được cung cấp không có thông tin về kiến thức này.</t>
-  </si>
-  <si>
     <t>Chính sách chống dịch của chính phủ bao gồm việc chỉ đạo quyết liệt và mạnh mẽ để chiến đấu chống dịch bệnh, thành lập phác đồ điều trị chuẩn của Bộ Y tế, cách ly bệnh nhân, làm xét nghiệm và chẩn đoán kịp thời. Sự hợp tác của người dân trong việc tự chủ động phòng ngừa cũng rất quan trọng, vì nó không chỉ bảo vệ bản thân mà còn bảo vệ cả xã hội khỏi sự lây lan của virus SARS-CoV-2.</t>
   </si>
   <si>
@@ -538,6 +535,9 @@
   </si>
   <si>
     <t>Các triệu chứng của bệnh sốt xuất huyết</t>
+  </si>
+  <si>
+    <t>bảo vệ cả xã hội khỏi sự lây lan của virus SARS-CoV-2.</t>
   </si>
 </sst>
 </file>
@@ -903,7 +903,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D47"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,16 +1353,16 @@
         <v>69</v>
       </c>
       <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.65111399999999997</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F23">
         <v>0.77115139507701658</v>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>74</v>
       </c>
       <c r="D24">
         <v>0.83133497625386032</v>
@@ -1390,13 +1390,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
       </c>
       <c r="D25">
         <v>0.87999157952295526</v>
@@ -1410,13 +1410,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
         <v>78</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
       </c>
       <c r="D26">
         <v>0.89797209035469938</v>
@@ -1430,13 +1430,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
       </c>
       <c r="D27">
         <v>0.81707474796237378</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
       </c>
       <c r="D28">
         <v>0.84605037553964235</v>
@@ -1470,13 +1470,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
         <v>87</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>89</v>
       </c>
       <c r="D29">
         <v>0.90373469012651741</v>
@@ -1490,13 +1490,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
       </c>
       <c r="D30">
         <v>0.86601689181689279</v>
@@ -1510,19 +1510,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
         <v>93</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
       </c>
       <c r="D31">
         <v>0.71192940157017703</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F31">
         <v>0.92502921411661509</v>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
         <v>96</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
       </c>
       <c r="D32">
         <v>0.82498919070031829</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>100</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
       </c>
       <c r="D33">
         <v>0.89331821190992855</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
         <v>102</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
       </c>
       <c r="D34">
         <v>0.79271079899002572</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
       </c>
       <c r="D35">
         <v>0.74918521283712647</v>
@@ -1610,16 +1610,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
         <v>108</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.64918500000000001</v>
       </c>
       <c r="E36">
         <v>0.65</v>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
         <v>111</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>112</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
       </c>
       <c r="D37">
         <v>0.74284104374452431</v>
@@ -1650,13 +1650,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
         <v>114</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>116</v>
       </c>
       <c r="D38">
         <v>0.76802907733482384</v>
@@ -1670,16 +1670,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
         <v>117</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>118</v>
       </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.56802200000000003</v>
       </c>
       <c r="E39">
         <v>0.71</v>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
         <v>120</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>121</v>
-      </c>
-      <c r="C40" t="s">
-        <v>122</v>
       </c>
       <c r="D40">
         <v>0.75908017291259267</v>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
         <v>123</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>124</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
       </c>
       <c r="D41">
         <v>0.83245452285621191</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
         <v>126</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>127</v>
-      </c>
-      <c r="C42" t="s">
-        <v>128</v>
       </c>
       <c r="D42">
         <v>0.89277765389539432</v>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
         <v>129</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>130</v>
-      </c>
-      <c r="C43" t="s">
-        <v>131</v>
       </c>
       <c r="D43">
         <v>0.85292848226484086</v>
@@ -1770,13 +1770,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
         <v>132</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>133</v>
-      </c>
-      <c r="C44" t="s">
-        <v>134</v>
       </c>
       <c r="D44">
         <v>0.83342742311833273</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
         <v>135</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>136</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
       </c>
       <c r="D45">
         <v>0.89976945847688583</v>
@@ -1810,13 +1810,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
         <v>138</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
       </c>
       <c r="D46">
         <v>0.90351410848380542</v>
@@ -1830,13 +1830,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47">
         <v>0.7422711325281971</v>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="B48" t="s">
-        <v>142</v>
-      </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1870,13 +1870,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1910,13 +1910,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51">
         <v>0</v>
